--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet 3" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Sheet 4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="224">
   <si>
     <t>Rank</t>
   </si>
@@ -660,6 +661,33 @@
   <si>
     <t>Riverwood</t>
   </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Leander</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Merged</t>
+  </si>
 </sst>
 </file>
 
@@ -668,7 +696,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss am/pm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -717,6 +745,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF202124"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -749,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -802,6 +835,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -823,6 +859,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -26285,4 +26325,85 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="18"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>